--- a/medicine/Pharmacie/3-Déazaneplanocine_A/3-Déazaneplanocine_A.xlsx
+++ b/medicine/Pharmacie/3-Déazaneplanocine_A/3-Déazaneplanocine_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3-D%C3%A9azaneplanocine_A</t>
+          <t>3-Déazaneplanocine_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La 3-déazaneplanocine A (DZNep) est un inhibiteur de l'adénosylhomocystéinase, une enzyme qui synthétise la S-adénosylhomocystéine. Des études ont montré qu'elle agit comme médicament anti-cancer des tumeurs colorectales et de l'ovaire[4],[5].
-Des études menées sur des souris ont montré que la 3-déazaneplanocine A peut agir contre la maladie à virus Ebola[6], semble-t-il en interférant avec la capacité du virus Ebola de bloquer la production d'interféron pour échapper au système immunitaire[7],[8].
+La 3-déazaneplanocine A (DZNep) est un inhibiteur de l'adénosylhomocystéinase, une enzyme qui synthétise la S-adénosylhomocystéine. Des études ont montré qu'elle agit comme médicament anti-cancer des tumeurs colorectales et de l'ovaire,.
+Des études menées sur des souris ont montré que la 3-déazaneplanocine A peut agir contre la maladie à virus Ebola, semble-t-il en interférant avec la capacité du virus Ebola de bloquer la production d'interféron pour échapper au système immunitaire,.
 </t>
         </is>
       </c>
